--- a/wzrv/expdata/1021.xlsx
+++ b/wzrv/expdata/1021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC31C2F-E620-4E43-BC24-215D5E0D3AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBC1C80-34B8-A94C-85F8-B732F8DABF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>PHENIX(e)</t>
   </si>
   <si>
-    <t>W-</t>
+    <t>W-,Z</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/wzrv/expdata/1021.xlsx
+++ b/wzrv/expdata/1021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1848ABA6-2D29-2A47-9687-3971B39FFF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752B4681-DC52-674A-9596-A2011C9CA677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35760" yWindow="3040" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>cms</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>pt_min</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
   <si>
     <t>boson</t>
@@ -453,30 +450,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -485,33 +482,30 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>510</v>
@@ -522,38 +516,35 @@
       <c r="E2" s="1">
         <v>16</v>
       </c>
-      <c r="F2" s="1">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.10199999999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J2" s="1">
         <v>0.22</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1">
-        <f>ABS(0.03*H2)</f>
+        <v>6</v>
+      </c>
+      <c r="L2" s="1">
+        <f>ABS(0.03*G2)</f>
         <v>3.0599999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>510</v>
@@ -564,38 +555,35 @@
       <c r="E3" s="1">
         <v>16</v>
       </c>
-      <c r="F3" s="1">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-0.28299999999999997</v>
       </c>
       <c r="H3" s="1">
-        <v>-0.28299999999999997</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J3" s="1">
         <v>0.26</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="1">
-        <f>ABS(0.03*H3)</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <f>ABS(0.03*G3)</f>
         <v>8.4899999999999993E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>510</v>
@@ -606,38 +594,35 @@
       <c r="E4" s="1">
         <v>16</v>
       </c>
-      <c r="F4" s="1">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.29099999999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>0.29099999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="I4" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="J4" s="1">
         <v>0.41</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="1">
-        <f>ABS(0.03*H4)</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="1">
+        <f>ABS(0.03*G4)</f>
         <v>8.7299999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>510</v>
@@ -648,29 +633,26 @@
       <c r="E5" s="1">
         <v>16</v>
       </c>
-      <c r="F5" s="1">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>-8.6999999999999994E-2</v>
+        <v>0.16</v>
       </c>
       <c r="I5" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="J5" s="1">
         <v>0.36499999999999999</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="1">
-        <f>ABS(0.03*H5)</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <f>ABS(0.03*G5)</f>
         <v>2.6099999999999999E-3</v>
       </c>
     </row>

--- a/wzrv/expdata/1021.xlsx
+++ b/wzrv/expdata/1021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752B4681-DC52-674A-9596-A2011C9CA677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3090C70D-A28F-884B-AD16-9DC63DD319B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35760" yWindow="3040" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>cms</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>W-,Z</t>
+  </si>
+  <si>
+    <t>eta_min</t>
+  </si>
+  <si>
+    <t>eta_max</t>
   </si>
 </sst>
 </file>
@@ -450,19 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -473,34 +479,37 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -511,35 +520,38 @@
         <v>510</v>
       </c>
       <c r="D2" s="1">
-        <v>-1.75</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="E2" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="F2" s="1">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.10199999999999999</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1">
-        <f>ABS(0.03*G2)</f>
+      <c r="M2" s="1">
+        <f>ABS(0.03*H2)</f>
         <v>3.0599999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -550,35 +562,38 @@
         <v>510</v>
       </c>
       <c r="D3" s="1">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="E3" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F3" s="1">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>-0.28299999999999997</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="1">
-        <f>ABS(0.03*G3)</f>
+      <c r="M3" s="1">
+        <f>ABS(0.03*H3)</f>
         <v>8.4899999999999993E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -589,35 +604,38 @@
         <v>510</v>
       </c>
       <c r="D4" s="1">
-        <v>-1.75</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="E4" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="F4" s="1">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.16</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.41</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="1">
-        <f>ABS(0.03*G4)</f>
+      <c r="M4" s="1">
+        <f>ABS(0.03*H4)</f>
         <v>8.7299999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -628,31 +646,34 @@
         <v>510</v>
       </c>
       <c r="D5" s="1">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="E5" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5" s="1">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.16</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.36499999999999999</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="1">
-        <f>ABS(0.03*G5)</f>
+      <c r="M5" s="1">
+        <f>ABS(0.03*H5)</f>
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
